--- a/Experiences/31to34 holes size.xlsx
+++ b/Experiences/31to34 holes size.xlsx
@@ -16,16 +16,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>EXP</t>
+  </si>
+  <si>
+    <t>Membrane 100 nm</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>dose1to2</t>
+  </si>
+  <si>
+    <t>dose in design</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Dot dose</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>BACKSIDE</t>
+  </si>
+  <si>
+    <t>FRONTSIDE</t>
+  </si>
+  <si>
+    <t>gras: raith mesure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +84,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,17 +141,190 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBBBBAD"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBBBBAD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBBBBAD"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBBBBAD"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -68,6 +332,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C9:I27" totalsRowShown="0">
+  <autoFilter ref="C9:I27"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="exp" dataDxfId="0"/>
+    <tableColumn id="2" name="1"/>
+    <tableColumn id="3" name="1,2"/>
+    <tableColumn id="4" name="1,4"/>
+    <tableColumn id="5" name="1,6"/>
+    <tableColumn id="6" name="1,8"/>
+    <tableColumn id="7" name="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="M9:S27" totalsRowShown="0">
+  <autoFilter ref="M9:S27"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="exp" dataDxfId="1"/>
+    <tableColumn id="2" name="1"/>
+    <tableColumn id="3" name="1,2"/>
+    <tableColumn id="4" name="1,4"/>
+    <tableColumn id="5" name="1,6"/>
+    <tableColumn id="6" name="1,8"/>
+    <tableColumn id="7" name="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,41 +653,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:D6"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="21" width="10.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D3">
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="K3" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D4">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D5">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="4">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="E6" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D6">
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="4">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
         <v>34</v>
       </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="M10" s="1">
+        <v>31</v>
+      </c>
+      <c r="N10" s="19">
+        <v>43.7</v>
+      </c>
+      <c r="R10">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>32</v>
+      </c>
+      <c r="M15" s="1">
+        <v>32</v>
+      </c>
+      <c r="N15" s="19">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>33</v>
+      </c>
+      <c r="M20" s="1">
+        <v>33</v>
+      </c>
+      <c r="N20" s="19">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <v>34</v>
+      </c>
+      <c r="M25" s="1">
+        <v>34</v>
+      </c>
+      <c r="N25" s="19">
+        <v>48.56</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Experiences/31to34 holes size.xlsx
+++ b/Experiences/31to34 holes size.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>EXP</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>gras: raith mesure</t>
+  </si>
+  <si>
+    <t>inlens apg</t>
+  </si>
+  <si>
+    <t>se2</t>
+  </si>
+  <si>
+    <t>apg</t>
+  </si>
+  <si>
+    <t>man</t>
   </si>
 </sst>
 </file>
@@ -266,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,12 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,12 +319,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -338,7 +360,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C9:I27" totalsRowShown="0">
   <autoFilter ref="C9:I27"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="exp" dataDxfId="0"/>
+    <tableColumn id="1" name="exp" dataDxfId="1"/>
     <tableColumn id="2" name="1"/>
     <tableColumn id="3" name="1,2"/>
     <tableColumn id="4" name="1,4"/>
@@ -351,10 +373,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="M9:S27" totalsRowShown="0">
-  <autoFilter ref="M9:S27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="L9:R27" totalsRowShown="0">
+  <autoFilter ref="L9:R27"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="exp" dataDxfId="1"/>
+    <tableColumn id="1" name="exp" dataDxfId="0"/>
     <tableColumn id="2" name="1"/>
     <tableColumn id="3" name="1,2"/>
     <tableColumn id="4" name="1,4"/>
@@ -655,73 +677,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="21" customWidth="1"/>
     <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="14" max="14" width="17.88671875" customWidth="1"/>
     <col min="15" max="21" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
+      <c r="A1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>5</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>1.2</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>1.4</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>1.6</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <v>1.8</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="16">
         <v>2</v>
       </c>
     </row>
@@ -764,7 +786,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -809,7 +831,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
@@ -833,28 +855,28 @@
       <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="K9" s="17" t="s">
         <v>16</v>
       </c>
+      <c r="L9" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -865,125 +887,208 @@
       <c r="H10">
         <v>18.989999999999998</v>
       </c>
-      <c r="M10" s="1">
+      <c r="L10" s="20">
         <v>31</v>
       </c>
-      <c r="N10" s="19">
-        <v>43.7</v>
-      </c>
-      <c r="R10">
-        <v>18.989999999999998</v>
+      <c r="M10">
+        <v>23.84</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>51</v>
+      </c>
+      <c r="G11">
+        <v>52.3</v>
+      </c>
+      <c r="H11">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11">
+        <v>21</v>
+      </c>
       <c r="N11">
-        <v>23.84</v>
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>40</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>32</v>
       </c>
-      <c r="M15" s="1">
+      <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="N15" s="19">
-        <v>38.869999999999997</v>
-      </c>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>30</v>
+      </c>
+      <c r="O16">
+        <v>43</v>
+      </c>
+      <c r="P16">
+        <v>45</v>
+      </c>
+      <c r="Q16">
+        <v>54</v>
+      </c>
+      <c r="S16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>33</v>
       </c>
-      <c r="M20" s="1">
+      <c r="L20" s="20">
         <v>33</v>
       </c>
-      <c r="N20" s="19">
-        <v>53.4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>33.4</v>
+      </c>
+      <c r="N21">
+        <v>42.88</v>
+      </c>
+      <c r="O21">
+        <v>42.88</v>
+      </c>
+      <c r="P21">
+        <v>47.6</v>
+      </c>
+      <c r="Q21">
+        <v>52.4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>34</v>
       </c>
-      <c r="M25" s="1">
+      <c r="L25" s="20">
         <v>34</v>
       </c>
-      <c r="N25" s="19">
+      <c r="M25" s="17">
         <v>48.56</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>33.35</v>
+      </c>
+      <c r="N26">
+        <v>38.1</v>
+      </c>
+      <c r="O26">
+        <v>42.9</v>
+      </c>
+      <c r="P26">
+        <v>42.9</v>
+      </c>
+      <c r="Q26">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="M32" s="1"/>
     </row>

--- a/Experiences/31to34 holes size.xlsx
+++ b/Experiences/31to34 holes size.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>EXP</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>man</t>
+  </si>
+  <si>
+    <t>inlens</t>
+  </si>
+  <si>
+    <t>pres</t>
+  </si>
+  <si>
+    <t>approxg sur 3-4 lignes</t>
   </si>
 </sst>
 </file>
@@ -145,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -274,11 +283,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,18 +337,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,14 +704,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="19" customWidth="1"/>
     <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="14" max="14" width="17.88671875" customWidth="1"/>
     <col min="15" max="21" width="10.88671875" customWidth="1"/>
@@ -706,14 +734,14 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
@@ -830,6 +858,23 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2</v>
+      </c>
+      <c r="F8" s="25">
+        <v>3</v>
+      </c>
+      <c r="G8" s="25">
+        <v>4</v>
+      </c>
+      <c r="H8" s="25">
+        <v>5</v>
+      </c>
+    </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>15</v>
@@ -858,7 +903,7 @@
       <c r="K9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M9" t="s">
@@ -887,7 +932,7 @@
       <c r="H10">
         <v>18.989999999999998</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="18">
         <v>31</v>
       </c>
       <c r="M10">
@@ -914,7 +959,7 @@
       <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="18"/>
       <c r="M11">
         <v>21</v>
       </c>
@@ -935,29 +980,64 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="L12" s="20"/>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
-      <c r="L13" s="20"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>32</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="18">
         <v>32</v>
       </c>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
-      <c r="L16" s="22" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20" t="s">
         <v>20</v>
       </c>
       <c r="M16">
@@ -979,30 +1059,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>33</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="18">
         <v>33</v>
       </c>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="L21" s="20" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>21.9</v>
+      </c>
+      <c r="G21">
+        <v>27.9</v>
+      </c>
+      <c r="H21">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="M21">
@@ -1024,32 +1121,72 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>20.5</v>
+      </c>
+      <c r="E22">
+        <v>25.1</v>
+      </c>
+      <c r="F22">
+        <v>26.1</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>35.6</v>
+      </c>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>34</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="18">
         <v>34</v>
       </c>
       <c r="M25" s="17">
         <v>48.56</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-      <c r="L26" s="20" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>5.48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E26">
+        <v>21.9</v>
+      </c>
+      <c r="F26">
+        <v>27.4</v>
+      </c>
+      <c r="G26">
+        <v>33</v>
+      </c>
+      <c r="H26">
+        <v>34</v>
+      </c>
+      <c r="L26" s="18" t="s">
         <v>21</v>
       </c>
       <c r="M26">
@@ -1068,27 +1205,47 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>26.3</v>
+      </c>
+      <c r="E27">
+        <v>30.6</v>
+      </c>
+      <c r="F27">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G27">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H27">
+        <v>39</v>
+      </c>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="M32" s="1"/>
     </row>

--- a/Experiences/31to34 holes size.xlsx
+++ b/Experiences/31to34 holes size.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>EXP</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Dot dose</t>
   </si>
   <si>
-    <t>exp</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -75,29 +72,80 @@
     <t>inlens apg</t>
   </si>
   <si>
-    <t>se2</t>
-  </si>
-  <si>
     <t>apg</t>
   </si>
   <si>
     <t>man</t>
   </si>
   <si>
-    <t>inlens</t>
-  </si>
-  <si>
-    <t>pres</t>
-  </si>
-  <si>
     <t>approxg sur 3-4 lignes</t>
+  </si>
+  <si>
+    <t>exp31to3408</t>
+  </si>
+  <si>
+    <t>Repetabiltié de approxgauss ? (sur 3-4 lignes)</t>
+  </si>
+  <si>
+    <t>34 1erdot</t>
+  </si>
+  <si>
+    <t>34 last dot</t>
+  </si>
+  <si>
+    <t>MOY</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>type de mesure</t>
+  </si>
+  <si>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>approx.gauss</t>
+  </si>
+  <si>
+    <t>raith</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>coté</t>
+  </si>
+  <si>
+    <t>backside</t>
+  </si>
+  <si>
+    <t>Inlens</t>
+  </si>
+  <si>
+    <t>Se2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +169,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +208,20 @@
         <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -292,11 +359,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,20 +562,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,16 +617,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C9:I27" totalsRowShown="0">
-  <autoFilter ref="C9:I27"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="exp" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A9:I18" totalsRowShown="0">
+  <autoFilter ref="A9:I18"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="experience" dataDxfId="1"/>
     <tableColumn id="2" name="1"/>
-    <tableColumn id="3" name="1,2"/>
-    <tableColumn id="4" name="1,4"/>
-    <tableColumn id="5" name="1,6"/>
-    <tableColumn id="6" name="1,8"/>
-    <tableColumn id="7" name="2"/>
+    <tableColumn id="3" name="2"/>
+    <tableColumn id="4" name="3"/>
+    <tableColumn id="5" name="4"/>
+    <tableColumn id="6" name="5"/>
+    <tableColumn id="7" name="type de mesure"/>
+    <tableColumn id="8" name="image"/>
+    <tableColumn id="9" name="coté"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -403,7 +638,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="L9:R27" totalsRowShown="0">
   <autoFilter ref="L9:R27"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="exp" dataDxfId="0"/>
+    <tableColumn id="1" name="experience" dataDxfId="0"/>
     <tableColumn id="2" name="1"/>
     <tableColumn id="3" name="1,2"/>
     <tableColumn id="4" name="1,4"/>
@@ -702,15 +937,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
     <col min="11" max="11" width="11.21875" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" style="19" customWidth="1"/>
     <col min="13" max="13" width="14.44140625" customWidth="1"/>
@@ -734,14 +973,14 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
@@ -815,7 +1054,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="M5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -859,78 +1098,80 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24">
-        <v>2</v>
-      </c>
-      <c r="F8" s="25">
-        <v>3</v>
-      </c>
-      <c r="G8" s="25">
-        <v>4</v>
-      </c>
-      <c r="H8" s="25">
-        <v>5</v>
-      </c>
+      <c r="A8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="L9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="N9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="O9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="P9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="Q9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="R9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
+      <c r="A10" s="1">
         <v>31</v>
       </c>
-      <c r="H10">
+      <c r="E10">
         <v>18.989999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
       </c>
       <c r="L10" s="18">
         <v>31</v>
@@ -940,24 +1181,32 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
+      <c r="A11" s="1">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
       <c r="D11">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>52.3</v>
       </c>
       <c r="F11">
-        <v>51</v>
-      </c>
-      <c r="G11">
-        <v>52.3</v>
-      </c>
-      <c r="H11">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
-        <v>19</v>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11">
@@ -976,44 +1225,96 @@
         <v>20</v>
       </c>
       <c r="S11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>31</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
+      <c r="F12" s="37">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>32</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C15">
         <v>18</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
-        <v>32</v>
+      <c r="D15">
+        <v>21.9</v>
+      </c>
+      <c r="E15">
+        <v>27.9</v>
+      </c>
+      <c r="F15">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
       </c>
       <c r="L15" s="18">
         <v>32</v>
@@ -1021,24 +1322,38 @@
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
+      <c r="A16" s="1">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>20.5</v>
+      </c>
+      <c r="C16">
+        <v>25.1</v>
+      </c>
       <c r="D16">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>35.6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M16">
         <v>26</v>
@@ -1056,15 +1371,67 @@
         <v>54</v>
       </c>
       <c r="S16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
+      <c r="A17" s="1">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C17">
+        <v>21.9</v>
+      </c>
+      <c r="D17">
+        <v>27.4</v>
+      </c>
+      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
+      <c r="A18" s="1">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>26.3</v>
+      </c>
+      <c r="C18">
+        <v>30.6</v>
+      </c>
+      <c r="D18">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E18">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F18">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1072,35 +1439,16 @@
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="1">
-        <v>33</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="L20" s="18">
         <v>33</v>
       </c>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E21">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>21.9</v>
-      </c>
-      <c r="G21">
-        <v>27.9</v>
-      </c>
-      <c r="H21">
-        <v>32.799999999999997</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="L21" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M21">
         <v>33.4</v>
@@ -1118,42 +1466,35 @@
         <v>52.4</v>
       </c>
       <c r="S21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="L22" s="18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>20.5</v>
-      </c>
-      <c r="E22">
-        <v>25.1</v>
-      </c>
-      <c r="F22">
-        <v>26.1</v>
-      </c>
-      <c r="G22">
-        <v>31</v>
-      </c>
-      <c r="H22">
-        <v>35.6</v>
-      </c>
-      <c r="L22" s="18"/>
+      <c r="M22">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N22">
+        <v>40.1</v>
+      </c>
+      <c r="O22">
+        <v>43.26</v>
+      </c>
+      <c r="P22">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
       <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C25" s="1">
-        <v>34</v>
-      </c>
       <c r="L25" s="18">
         <v>34</v>
       </c>
@@ -1162,32 +1503,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>5.48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E26">
-        <v>21.9</v>
-      </c>
-      <c r="F26">
-        <v>27.4</v>
-      </c>
-      <c r="G26">
-        <v>33</v>
-      </c>
-      <c r="H26">
-        <v>34</v>
-      </c>
       <c r="L26" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M26">
         <v>33.35</v>
@@ -1206,48 +1523,172 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <v>26.3</v>
-      </c>
-      <c r="E27">
-        <v>30.6</v>
-      </c>
-      <c r="F27">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="G27">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H27">
-        <v>39</v>
-      </c>
-      <c r="L27" s="18"/>
+      <c r="L27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>34.9</v>
+      </c>
+      <c r="N27">
+        <v>39.5</v>
+      </c>
+      <c r="O27">
+        <v>44.2</v>
+      </c>
+      <c r="P27">
+        <v>45.6</v>
+      </c>
+      <c r="Q27">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M32" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="28">
+        <v>33.9</v>
+      </c>
+      <c r="C38" s="29">
+        <v>35</v>
+      </c>
+      <c r="D38" s="29">
+        <v>34.6</v>
+      </c>
+      <c r="E38" s="29">
+        <v>33.9</v>
+      </c>
+      <c r="F38" s="30">
+        <v>34.25</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(B38:B38)</f>
+        <v>33.9</v>
+      </c>
+      <c r="H38" t="e">
+        <f>VAR(B38:B38)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34">
+        <v>10</v>
+      </c>
+      <c r="C39" s="35">
+        <v>8</v>
+      </c>
+      <c r="D39" s="35">
+        <v>8</v>
+      </c>
+      <c r="E39" s="35">
+        <v>10</v>
+      </c>
+      <c r="F39" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="B40" s="28">
+        <v>46.47</v>
+      </c>
+      <c r="C40" s="29">
+        <v>42.72</v>
+      </c>
+      <c r="D40" s="29">
+        <v>42.08</v>
+      </c>
+      <c r="E40" s="29">
+        <v>42.9</v>
+      </c>
+      <c r="F40" s="30">
+        <v>41.2</v>
+      </c>
+      <c r="G40">
+        <f>AVERAGE(B40:B40)</f>
+        <v>46.47</v>
+      </c>
+      <c r="H40" t="e">
+        <f>VAR(B40:B40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+      <c r="B41" s="3">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="34">
+        <v>1079</v>
+      </c>
+      <c r="C42" s="35">
+        <v>640</v>
+      </c>
+      <c r="D42" s="35">
+        <v>2959</v>
+      </c>
+      <c r="E42" s="35">
+        <v>1407</v>
+      </c>
+      <c r="F42" s="36">
+        <v>344</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
